--- a/Sprawozdanie.xlsx
+++ b/Sprawozdanie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oliwer\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C77434B-1CFB-43E9-91E7-42245F4316FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9BE52C-0D6D-4F84-A998-EB27F5C306E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{9B8B0A92-023A-4E8F-AE39-C335D52FDCEC}"/>
+    <workbookView xWindow="3072" yWindow="2640" windowWidth="23040" windowHeight="12204" xr2:uid="{9B8B0A92-023A-4E8F-AE39-C335D52FDCEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Juliusz Żakowski</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>20-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ogarnia muzke </t>
+  </si>
+  <si>
+    <t>Niedziela dzień wolny 😴</t>
   </si>
 </sst>
 </file>
@@ -139,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -150,6 +156,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -516,7 +523,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -573,6 +580,12 @@
       <c r="A3" s="2">
         <v>45242</v>
       </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
